--- a/public/xlsx/template.xlsx
+++ b/public/xlsx/template.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\binder\public\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C519DE28-6F72-44F9-A52D-FB773A64DFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6495CC80-625F-4A17-9D1C-A0F79F303F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26505" yWindow="2295" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23385" yWindow="3270" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$A:$J,Sheet1!$6:$6</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -109,7 +112,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="游ゴシック"/>
       <family val="3"/>
@@ -172,87 +175,105 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="5" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="5" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -594,146 +615,158 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="J7" sqref="A7:J7"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="11.625" customWidth="1"/>
-    <col min="6" max="6" width="13.25" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" customWidth="1"/>
-    <col min="9" max="9" width="13" customWidth="1"/>
-    <col min="10" max="10" width="10.5" customWidth="1"/>
+    <col min="1" max="1" width="11.625" style="25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" style="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="21" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="21" customWidth="1"/>
+    <col min="5" max="5" width="9.875" style="28" customWidth="1"/>
+    <col min="6" max="6" width="13.25" style="20" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="21" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="21" customWidth="1"/>
+    <col min="9" max="9" width="13" style="21" customWidth="1"/>
+    <col min="10" max="10" width="11.125" style="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1"/>
-      <c r="B1" s="4"/>
-      <c r="E1" s="7" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="7"/>
-      <c r="I1" t="s">
+      <c r="F1" s="4"/>
+      <c r="G1" s="1"/>
+      <c r="H1"/>
+      <c r="I1" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="2">
+      <c r="J1" s="25">
         <f ca="1">TODAY()</f>
-        <v>45184</v>
+        <v>45188</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" s="8" t="s">
+    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="10" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="11"/>
-      <c r="E2" s="20" t="s">
+      <c r="D2" s="8"/>
+      <c r="E2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="18"/>
-      <c r="G2" s="21" t="s">
+      <c r="F2" s="10"/>
+      <c r="G2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" s="12" t="s">
+    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="13"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="15"/>
-      <c r="E3" s="16" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="19"/>
-      <c r="G3" s="22" t="s">
+      <c r="F3" s="16"/>
+      <c r="G3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
     </row>
-    <row r="4" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="16" t="s">
+    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="16" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="19"/>
+      <c r="E4" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="19"/>
-      <c r="G4" s="22" t="s">
+      <c r="F4" s="16"/>
+      <c r="G4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
     </row>
-    <row r="5" spans="1:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5"/>
-      <c r="B5" s="1"/>
+    <row r="5" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="20"/>
+      <c r="B5" s="21"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="24" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="5" t="s">
+      <c r="J6" s="23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="C7" s="24"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="25"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="25"/>
+    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="30"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="F7" s="31"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/public/xlsx/template.xlsx
+++ b/public/xlsx/template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\binder\public\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fujimura\Desktop\一時保管\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6495CC80-625F-4A17-9D1C-A0F79F303F1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9FE31B-9543-4D1F-BC74-316158D1D61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23385" yWindow="3270" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>帳 簿 一 覧</t>
   </si>
@@ -78,6 +78,10 @@
   </si>
   <si>
     <t>削除</t>
+  </si>
+  <si>
+    <t>グループ</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -96,8 +100,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="20"/>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="游ゴシック"/>
       <family val="3"/>
@@ -105,14 +115,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="6"/>
-      <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
+      <b/>
+      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="游ゴシック"/>
       <family val="3"/>
@@ -129,8 +133,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFE7E6E6"/>
+        <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
   </fills>
@@ -147,7 +151,18 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color rgb="FFAFABAB"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FFAFABAB"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFAFABAB"/>
       </bottom>
       <diagonal/>
     </border>
@@ -156,18 +171,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color theme="2" tint="-0.249977111117893"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="2" tint="-0.249977111117893"/>
-      </top>
-      <bottom style="thin">
-        <color theme="2" tint="-0.249977111117893"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -175,105 +179,93 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="5" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="5" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -613,157 +605,164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="160" zoomScaleNormal="130" zoomScaleSheetLayoutView="160" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.625" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.625" style="26" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.375" style="21" customWidth="1"/>
-    <col min="4" max="4" width="13.125" style="21" customWidth="1"/>
-    <col min="5" max="5" width="9.875" style="28" customWidth="1"/>
-    <col min="6" max="6" width="13.25" style="20" customWidth="1"/>
-    <col min="7" max="7" width="10.5" style="21" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="21" customWidth="1"/>
-    <col min="9" max="9" width="13" style="21" customWidth="1"/>
+    <col min="1" max="1" width="9.5" style="6" customWidth="1"/>
+    <col min="2" max="2" width="10.25" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="10.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.875" style="27" customWidth="1"/>
+    <col min="6" max="6" width="14" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="11.125" style="3" customWidth="1"/>
     <col min="10" max="10" width="11.125" style="28" customWidth="1"/>
+    <col min="11" max="11" width="10.75" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1"/>
-      <c r="B1" s="3"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="4" t="s">
+    <row r="1" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="1"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="1"/>
-      <c r="H1"/>
-      <c r="I1" s="20" t="s">
+      <c r="F1" s="5"/>
+      <c r="H1" s="1"/>
+      <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="25">
+      <c r="K1" s="6">
         <f ca="1">TODAY()</f>
-        <v>45188</v>
+        <v>45247</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="8"/>
+      <c r="C2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11" t="s">
+      <c r="F2" s="12"/>
+      <c r="G2" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="10"/>
+      <c r="H2" s="12"/>
       <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
+      <c r="J2" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="12"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="14" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="15" t="s">
+      <c r="D3" s="15"/>
+      <c r="E3" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="16"/>
-      <c r="G3" s="17" t="s">
+      <c r="F3" s="18"/>
+      <c r="G3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="12"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="15" t="s">
+      <c r="B4" s="18"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="16"/>
-      <c r="G4" s="17" t="s">
+      <c r="F4" s="18"/>
+      <c r="G4" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="12"/>
     </row>
-    <row r="5" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="20"/>
-      <c r="H5" s="20"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
+    <row r="5" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="1"/>
+      <c r="B5" s="3"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="23" t="s">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F6" s="23" t="s">
+      <c r="F6" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="G6" s="23" t="s">
+      <c r="G6" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="23" t="s">
+      <c r="J6" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="J6" s="23" t="s">
+      <c r="K6" s="22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="30"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="24"/>
+      <c r="B7" s="25"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="26"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="26"/>
+      <c r="K7" s="27"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="2"/>
-  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.70866141732282995" right="0.70866141732282995" top="0.74803149606299002" bottom="0.74803149606299002" header="0.31496062992126" footer="0.31496062992126"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;P/&amp;N</oddFooter>

--- a/public/xlsx/template.xlsx
+++ b/public/xlsx/template.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fujimura\Desktop\一時保管\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fujimura\Desktop\一時保管\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9FE31B-9543-4D1F-BC74-316158D1D61A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C580DC6-646C-4CFB-AC84-DDFBB1E22793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-30" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -607,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K7"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="160" zoomScaleNormal="130" zoomScaleSheetLayoutView="160" zoomScalePageLayoutView="145" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="160" zoomScalePageLayoutView="145" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -640,7 +640,7 @@
       </c>
       <c r="K1" s="6">
         <f ca="1">TODAY()</f>
-        <v>45247</v>
+        <v>45257</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
